--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="7908" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="7908" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="チュートリアル" sheetId="10" r:id="rId5"/>
     <sheet name="壁" sheetId="12" r:id="rId6"/>
     <sheet name="成功" sheetId="13" r:id="rId7"/>
+    <sheet name="失敗" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -849,6 +850,395 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが後ろに転倒した際、特大モニターに×を表示</t>
+    <rPh sb="6" eb="7">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの転倒先は小麦粉</t>
+    <rPh sb="6" eb="9">
+      <t>テントウサキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転倒後、小麦粉を目の前に舞わせる。</t>
+    <rPh sb="0" eb="2">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※表示と同時にSEを再生。（SE_Miss.wav）</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが落ちた時点で、特大モニターに×を表示</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トクダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちた判定は、プレイヤーが生存エリアから外れた時に</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置されている小麦粉はテクスチャで再現。</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが小麦粉に触れると同時に小麦粉が目の前に</t>
+    <rPh sb="6" eb="9">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>来るように舞わせる。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※小麦粉は細かいものと荒いもの2種類を同時に生成する。</t>
+    <rPh sb="1" eb="4">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※細かい小麦粉：ほぼ白い煙</t>
+    <rPh sb="1" eb="2">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　荒い小麦粉　：極小の白い粒</t>
+    <rPh sb="1" eb="2">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考動画</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界を白くする。</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界はうっすら見えるくらいの白さにする。</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考画像１</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンディング中、頭を振ることで白の不透明度を</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>フトウメイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徐々に0に近づく。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※頭を振った際も目の前に小麦粉が舞うようにする。</t>
+    <rPh sb="1" eb="2">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　小麦粉は③同様に2種類を使う。</t>
+    <rPh sb="1" eb="4">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存エリア</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちた判定にする（参考画像１を参照）</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サンコウガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦粉</t>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・成功</t>
+    <rPh sb="1" eb="3">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・失敗</t>
+    <rPh sb="1" eb="3">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -938,13 +1328,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,6 +1951,418 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="38636" t="17247" r="21288" b="27103"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="1143000"/>
+          <a:ext cx="2819400" cy="2201157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9250680" y="1470660"/>
+          <a:ext cx="883920" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="乗算 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="1440180"/>
+          <a:ext cx="655320" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11358"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>3104</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>186180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9311639" y="3810910"/>
+          <a:ext cx="1682805" cy="2697676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フリーフォーム 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9090660" y="3116580"/>
+          <a:ext cx="868680" cy="121920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 60960 w 868680"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 121920"/>
+            <a:gd name="connsiteX1" fmla="*/ 861060 w 868680"/>
+            <a:gd name="connsiteY1" fmla="*/ 7620 h 121920"/>
+            <a:gd name="connsiteX2" fmla="*/ 868680 w 868680"/>
+            <a:gd name="connsiteY2" fmla="*/ 121920 h 121920"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 868680"/>
+            <a:gd name="connsiteY3" fmla="*/ 121920 h 121920"/>
+            <a:gd name="connsiteX4" fmla="*/ 60960 w 868680"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 121920"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="868680" h="121920">
+              <a:moveTo>
+                <a:pt x="60960" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="861060" y="7620"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="868680" y="121920"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="121920"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="60960" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9220200" y="3025140"/>
+          <a:ext cx="152400" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9761220" y="3185160"/>
+          <a:ext cx="381000" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1827,7 +2629,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1841,297 +2643,377 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44558</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>44558</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>44558</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44558</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44558</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44558</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="5">
+        <v>44559</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="B12" s="5">
+        <v>44560</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
@@ -2140,70 +3022,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2212,43 +3030,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="G4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="G7" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2702,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2795,4 +3624,197 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AO26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="17" max="17" width="3.296875" style="2"/>
+    <col min="19" max="19" width="3.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="AJ5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="T7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="T9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="T15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+      <c r="T16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="AJ19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="S23" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="19:41" x14ac:dyDescent="0.45">
+      <c r="T26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次"/>
+    <hyperlink ref="D2" location="更新履歴!A1" display="更新履歴"/>
+    <hyperlink ref="T18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Specification.xlsx
+++ b/Specification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="7908" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="7908" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="壁" sheetId="12" r:id="rId6"/>
     <sheet name="成功" sheetId="13" r:id="rId7"/>
     <sheet name="失敗" sheetId="14" r:id="rId8"/>
+    <sheet name="動作確認" sheetId="15" r:id="rId9"/>
+    <sheet name="2P操作" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="161">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -1239,6 +1241,529 @@
     <t>・失敗</t>
     <rPh sb="1" eb="3">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認シーンへ遷移</t>
+    <rPh sb="0" eb="4">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手足を上げ、目標位置で一定キープ</t>
+    <rPh sb="0" eb="2">
+      <t>テアシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に移動し、シルエットに合った位置で一定キープ</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央でしゃがみ、頭の位置を目標位置で一定キープ</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルへ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右手、左足をそれぞれの目標位置に合わせ、挙げる。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒダリアシ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標位置のUIを表示</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒間キープ。（SE_Keep.wav）</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キープ後、UIを削除。（SE_Delete.wav）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認シーンへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「動作確認」の文字を表示。</t>
+    <rPh sb="1" eb="5">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※参考画像１を参照</t>
+    <rPh sb="1" eb="5">
+      <t>サンコウガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※VR、MocapForAllそれぞれが認証できるまで③へは移行しない。</t>
+    <rPh sb="20" eb="22">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面左に目標位置のUIを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動し、位置を合わせた状態で1秒間キープ。（SE_Keep.wav）</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左の目標位置UIを削除（SE_Delete.wav）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右の目標位置UIを削除（SE_Delete.wav）</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面右に目標位置のUIを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※参考画像3を参照</t>
+    <rPh sb="1" eb="5">
+      <t>サンコウガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※VR、MocapForAllそれぞれが認証できるまで④へは移行しない。</t>
+    <rPh sb="20" eb="22">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央に目標位置のUIを表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃがんで、頭の位置を合わせた状態で1秒間キープ。（SE_Keep.wav）</t>
+    <rPh sb="6" eb="7">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビョウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標位置UIを削除</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白フェード（0.5秒）→チュートリアル</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンを開始。</t>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁を生成し、レーンに流す。</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※変更予定あり</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になったタイミングのとき、ポーズをキャプチャ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になるまで体を自由に動かし、ポーズをとる。</t>
+    <rPh sb="6" eb="7">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ内で体を自由に動かし、ポーズをキープする。</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ジャンプは無し</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0になったタイミングでキャプチャし（SE_Shutter.wav）、壁を生成。</t>
+    <rPh sb="34" eb="35">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンは5秒。画面中央上部に表示</t>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁は2Pの後ろに生成。</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ギリギリ２Pと重ならない位置に生成。</t>
+    <rPh sb="8" eb="9">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1Pに向かって壁が流れていく。</t>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のカウントダウン開始。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※壁が流れていき、カーテンが閉まったタイミング。</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①に戻る</t>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認</t>
+    <rPh sb="0" eb="4">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2P操作</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様追加（小麦粉）</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コムギコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2628,13 +3153,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="5.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
@@ -2832,41 +3358,65 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5">
+        <v>44563</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5">
+        <v>44565</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5">
+        <v>44566</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -3028,11 +3578,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="17" max="17" width="3.296875" style="2"/>
+    <col min="19" max="19" width="3.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="T11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S17" t="s">
+        <v>153</v>
+      </c>
+      <c r="T17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次"/>
+    <hyperlink ref="D2" location="更新履歴!A1" display="更新履歴"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -3630,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3817,4 +4509,200 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="17" max="17" width="3.296875" style="2"/>
+    <col min="19" max="19" width="3.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="T15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S26" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="S30" t="s">
+        <v>98</v>
+      </c>
+      <c r="T30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="19:20" x14ac:dyDescent="0.45">
+      <c r="T31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次"/>
+    <hyperlink ref="D2" location="更新履歴!A1" display="更新履歴"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>